--- a/DateBase/orders/Nha Thu_2026-2-3.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-3.xlsx
@@ -787,6 +787,9 @@
       <c r="C41" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -848,7 +851,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101010101015101051010101555510138201515201530101010101515791010151050</v>
+        <v>010101010101015101051010101555510138201515201530101010101515791010151055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-3.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,9 +791,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>10</v>
+      </c>
+      <c r="C42" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -851,7 +878,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101010101015101051010101555510138201515201530101010101515791010151055</v>
+        <v>010101010101015101051010101555510138201515201530101010101515791010151055151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-3.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-3.xlsx
@@ -880,6 +880,9 @@
       <c r="G2" t="str">
         <v>010101010101015101051010101555510138201515201530101010101515791010151055151010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
